--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd34-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd34-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>129.2697763333333</v>
+        <v>212.9195706666667</v>
       </c>
       <c r="H2">
-        <v>387.809329</v>
+        <v>638.7587120000001</v>
       </c>
       <c r="I2">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749344</v>
       </c>
       <c r="J2">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749345</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.692291666666666</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N2">
-        <v>26.076875</v>
+        <v>22.415874</v>
       </c>
       <c r="O2">
-        <v>0.7904374164682153</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P2">
-        <v>0.7904374164682153</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q2">
-        <v>1123.650599574097</v>
+        <v>1590.926089399366</v>
       </c>
       <c r="R2">
-        <v>10112.85539616687</v>
+        <v>14318.33480459429</v>
       </c>
       <c r="S2">
-        <v>0.4826830235716678</v>
+        <v>0.5306543086839103</v>
       </c>
       <c r="T2">
-        <v>0.4826830235716678</v>
+        <v>0.5306543086839104</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>129.2697763333333</v>
+        <v>212.9195706666667</v>
       </c>
       <c r="H3">
-        <v>387.809329</v>
+        <v>638.7587120000001</v>
       </c>
       <c r="I3">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749344</v>
       </c>
       <c r="J3">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749345</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.376338</v>
       </c>
       <c r="O3">
-        <v>0.01140748791558863</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P3">
-        <v>0.01140748791558863</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q3">
-        <v>16.21637636191133</v>
+        <v>26.70990846185067</v>
       </c>
       <c r="R3">
-        <v>145.947387257202</v>
+        <v>240.389176156656</v>
       </c>
       <c r="S3">
-        <v>0.006966017351577376</v>
+        <v>0.008909105271625162</v>
       </c>
       <c r="T3">
-        <v>0.006966017351577376</v>
+        <v>0.008909105271625164</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>129.2697763333333</v>
+        <v>212.9195706666667</v>
       </c>
       <c r="H4">
-        <v>387.809329</v>
+        <v>638.7587120000001</v>
       </c>
       <c r="I4">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749344</v>
       </c>
       <c r="J4">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749345</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.09408700000000002</v>
+        <v>0.148662</v>
       </c>
       <c r="N4">
-        <v>0.282261</v>
+        <v>0.445986</v>
       </c>
       <c r="O4">
-        <v>0.00855584327530561</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P4">
-        <v>0.008555843275305609</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q4">
-        <v>12.16260544587434</v>
+        <v>31.653049214448</v>
       </c>
       <c r="R4">
-        <v>109.463449012869</v>
+        <v>284.877442930032</v>
       </c>
       <c r="S4">
-        <v>0.005224651838702397</v>
+        <v>0.01055789270196212</v>
       </c>
       <c r="T4">
-        <v>0.005224651838702396</v>
+        <v>0.01055789270196212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>129.2697763333333</v>
+        <v>212.9195706666667</v>
       </c>
       <c r="H5">
-        <v>387.809329</v>
+        <v>638.7587120000001</v>
       </c>
       <c r="I5">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749344</v>
       </c>
       <c r="J5">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749345</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04400233333333333</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N5">
-        <v>0.132007</v>
+        <v>0.047879</v>
       </c>
       <c r="O5">
-        <v>0.004001371791509515</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P5">
-        <v>0.004001371791509515</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q5">
-        <v>5.688171788144778</v>
+        <v>3.398125374649778</v>
       </c>
       <c r="R5">
-        <v>51.19354609330299</v>
+        <v>30.583128371848</v>
       </c>
       <c r="S5">
-        <v>0.002443449910797407</v>
+        <v>0.001133446665763599</v>
       </c>
       <c r="T5">
-        <v>0.002443449910797407</v>
+        <v>0.001133446665763599</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>129.2697763333333</v>
+        <v>212.9195706666667</v>
       </c>
       <c r="H6">
-        <v>387.809329</v>
+        <v>638.7587120000001</v>
       </c>
       <c r="I6">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749344</v>
       </c>
       <c r="J6">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749345</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.040985</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N6">
-        <v>6.122955</v>
+        <v>6.437662</v>
       </c>
       <c r="O6">
-        <v>0.1855978805493811</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P6">
-        <v>0.1855978805493811</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q6">
-        <v>263.8376744496883</v>
+        <v>456.9014097123716</v>
       </c>
       <c r="R6">
-        <v>2374.539070047195</v>
+        <v>4112.112687411344</v>
       </c>
       <c r="S6">
-        <v>0.113335912857398</v>
+        <v>0.1523997270037599</v>
       </c>
       <c r="T6">
-        <v>0.113335912857398</v>
+        <v>0.1523997270037599</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>72.02244833333333</v>
+        <v>212.9195706666667</v>
       </c>
       <c r="H7">
-        <v>216.067345</v>
+        <v>638.7587120000001</v>
       </c>
       <c r="I7">
-        <v>0.3402243694466038</v>
+        <v>0.7081219821749344</v>
       </c>
       <c r="J7">
-        <v>0.3402243694466039</v>
+        <v>0.7081219821749345</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>8.692291666666666</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N7">
-        <v>26.076875</v>
+        <v>0.188716</v>
       </c>
       <c r="O7">
-        <v>0.7904374164682153</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P7">
-        <v>0.7904374164682153</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q7">
-        <v>626.0401274607638</v>
+        <v>13.39377656597689</v>
       </c>
       <c r="R7">
-        <v>5634.361147146874</v>
+        <v>120.543989093792</v>
       </c>
       <c r="S7">
-        <v>0.2689260716049011</v>
+        <v>0.004467501847913349</v>
       </c>
       <c r="T7">
-        <v>0.2689260716049012</v>
+        <v>0.00446750184791335</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>216.067345</v>
       </c>
       <c r="I8">
-        <v>0.3402243694466038</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="J8">
-        <v>0.3402243694466039</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.125446</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N8">
-        <v>0.376338</v>
+        <v>22.415874</v>
       </c>
       <c r="O8">
-        <v>0.01140748791558863</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P8">
-        <v>0.01140748791558863</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q8">
-        <v>9.034928053623331</v>
+        <v>538.1487090038366</v>
       </c>
       <c r="R8">
-        <v>81.31435248260999</v>
+        <v>4843.33838103453</v>
       </c>
       <c r="S8">
-        <v>0.003881105383050894</v>
+        <v>0.1794998102352973</v>
       </c>
       <c r="T8">
-        <v>0.003881105383050894</v>
+        <v>0.1794998102352973</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>216.067345</v>
       </c>
       <c r="I9">
-        <v>0.3402243694466038</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="J9">
-        <v>0.3402243694466039</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09408700000000002</v>
+        <v>0.125446</v>
       </c>
       <c r="N9">
-        <v>0.282261</v>
+        <v>0.376338</v>
       </c>
       <c r="O9">
-        <v>0.00855584327530561</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P9">
-        <v>0.008555843275305609</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q9">
-        <v>6.776376096338335</v>
+        <v>9.034928053623332</v>
       </c>
       <c r="R9">
-        <v>60.98738486704501</v>
+        <v>81.31435248260999</v>
       </c>
       <c r="S9">
-        <v>0.002910906383424817</v>
+        <v>0.003013605429095975</v>
       </c>
       <c r="T9">
-        <v>0.002910906383424817</v>
+        <v>0.003013605429095976</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>216.067345</v>
       </c>
       <c r="I10">
-        <v>0.3402243694466038</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="J10">
-        <v>0.3402243694466039</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.04400233333333333</v>
+        <v>0.148662</v>
       </c>
       <c r="N10">
-        <v>0.132007</v>
+        <v>0.445986</v>
       </c>
       <c r="O10">
-        <v>0.004001371791509515</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P10">
-        <v>0.004001371791509515</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q10">
-        <v>3.169155779046111</v>
+        <v>10.70700121413</v>
       </c>
       <c r="R10">
-        <v>28.522402011415</v>
+        <v>96.36301092717</v>
       </c>
       <c r="S10">
-        <v>0.001361364194687752</v>
+        <v>0.003571326389843166</v>
       </c>
       <c r="T10">
-        <v>0.001361364194687753</v>
+        <v>0.003571326389843167</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>216.067345</v>
       </c>
       <c r="I11">
-        <v>0.3402243694466038</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="J11">
-        <v>0.3402243694466039</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.040985</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N11">
-        <v>6.122955</v>
+        <v>0.047879</v>
       </c>
       <c r="O11">
-        <v>0.1855978805493811</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P11">
-        <v>0.1855978805493811</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q11">
-        <v>146.9967367116083</v>
+        <v>1.149454267917222</v>
       </c>
       <c r="R11">
-        <v>1322.970630404475</v>
+        <v>10.345088411255</v>
       </c>
       <c r="S11">
-        <v>0.06314492188053927</v>
+        <v>0.0003834011296751489</v>
       </c>
       <c r="T11">
-        <v>0.06314492188053929</v>
+        <v>0.0003834011296751489</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2262363333333333</v>
+        <v>72.02244833333333</v>
       </c>
       <c r="H12">
-        <v>0.678709</v>
+        <v>216.067345</v>
       </c>
       <c r="I12">
-        <v>0.001068710042985603</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="J12">
-        <v>0.001068710042985603</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.692291666666666</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N12">
-        <v>26.076875</v>
+        <v>6.437662</v>
       </c>
       <c r="O12">
-        <v>0.7904374164682153</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P12">
-        <v>0.7904374164682153</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q12">
-        <v>1.966512194930556</v>
+        <v>154.5520595941544</v>
       </c>
       <c r="R12">
-        <v>17.698609754375</v>
+        <v>1390.96853634739</v>
       </c>
       <c r="S12">
-        <v>0.0008447484053311752</v>
+        <v>0.05155092803247307</v>
       </c>
       <c r="T12">
-        <v>0.0008447484053311752</v>
+        <v>0.05155092803247308</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2262363333333333</v>
+        <v>72.02244833333333</v>
       </c>
       <c r="H13">
-        <v>0.678709</v>
+        <v>216.067345</v>
       </c>
       <c r="I13">
-        <v>0.001068710042985603</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="J13">
-        <v>0.001068710042985603</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.125446</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N13">
-        <v>0.376338</v>
+        <v>0.188716</v>
       </c>
       <c r="O13">
-        <v>0.01140748791558863</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P13">
-        <v>0.01140748791558863</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q13">
-        <v>0.02838044307133333</v>
+        <v>4.53059611989111</v>
       </c>
       <c r="R13">
-        <v>0.255423987642</v>
+        <v>40.77536507902</v>
       </c>
       <c r="S13">
-        <v>1.219129690062647E-05</v>
+        <v>0.001511182931719029</v>
       </c>
       <c r="T13">
-        <v>1.219129690062647E-05</v>
+        <v>0.001511182931719029</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2262363333333333</v>
+        <v>0.5110083333333334</v>
       </c>
       <c r="H14">
-        <v>0.678709</v>
+        <v>1.533025</v>
       </c>
       <c r="I14">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="J14">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09408700000000002</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N14">
-        <v>0.282261</v>
+        <v>22.415874</v>
       </c>
       <c r="O14">
-        <v>0.00855584327530561</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P14">
-        <v>0.008555843275305609</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q14">
-        <v>0.02128589789433334</v>
+        <v>3.818232804316668</v>
       </c>
       <c r="R14">
-        <v>0.191573081049</v>
+        <v>34.36409523885001</v>
       </c>
       <c r="S14">
-        <v>9.143715634529939E-06</v>
+        <v>0.001273573739641067</v>
       </c>
       <c r="T14">
-        <v>9.143715634529938E-06</v>
+        <v>0.001273573739641067</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2262363333333333</v>
+        <v>0.5110083333333334</v>
       </c>
       <c r="H15">
-        <v>0.678709</v>
+        <v>1.533025</v>
       </c>
       <c r="I15">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="J15">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.04400233333333333</v>
+        <v>0.125446</v>
       </c>
       <c r="N15">
-        <v>0.132007</v>
+        <v>0.376338</v>
       </c>
       <c r="O15">
-        <v>0.004001371791509515</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P15">
-        <v>0.004001371791509515</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q15">
-        <v>0.009954926551444445</v>
+        <v>0.06410395138333334</v>
       </c>
       <c r="R15">
-        <v>0.08959433896299999</v>
+        <v>0.57693556245</v>
       </c>
       <c r="S15">
-        <v>4.276306219305512E-06</v>
+        <v>2.138190971402855E-05</v>
       </c>
       <c r="T15">
-        <v>4.276306219305512E-06</v>
+        <v>2.138190971402855E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,61 +1411,61 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2262363333333333</v>
+        <v>0.5110083333333334</v>
       </c>
       <c r="H16">
-        <v>0.678709</v>
+        <v>1.533025</v>
       </c>
       <c r="I16">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="J16">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.040985</v>
+        <v>0.148662</v>
       </c>
       <c r="N16">
-        <v>6.122955</v>
+        <v>0.445986</v>
       </c>
       <c r="O16">
-        <v>0.1855978805493811</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P16">
-        <v>0.1855978805493811</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q16">
-        <v>0.4617449627883334</v>
+        <v>0.07596752085</v>
       </c>
       <c r="R16">
-        <v>4.155704665095</v>
+        <v>0.68370768765</v>
       </c>
       <c r="S16">
-        <v>0.0001983503188999658</v>
+        <v>2.533901010719283E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001983503188999658</v>
+        <v>2.533901010719284E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.359407333333333</v>
+        <v>0.5110083333333334</v>
       </c>
       <c r="H17">
-        <v>25.078222</v>
+        <v>1.533025</v>
       </c>
       <c r="I17">
-        <v>0.03948871712563483</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="J17">
-        <v>0.03948871712563483</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>8.692291666666666</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N17">
-        <v>26.076875</v>
+        <v>0.047879</v>
       </c>
       <c r="O17">
-        <v>0.7904374164682153</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P17">
-        <v>0.7904374164682153</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q17">
-        <v>72.66240670180555</v>
+        <v>0.00815552266388889</v>
       </c>
       <c r="R17">
-        <v>653.9616603162499</v>
+        <v>0.07339970397499999</v>
       </c>
       <c r="S17">
-        <v>0.03121335954443096</v>
+        <v>2.720279257470606E-06</v>
       </c>
       <c r="T17">
-        <v>0.03121335954443096</v>
+        <v>2.720279257470606E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.359407333333333</v>
+        <v>0.5110083333333334</v>
       </c>
       <c r="H18">
-        <v>25.078222</v>
+        <v>1.533025</v>
       </c>
       <c r="I18">
-        <v>0.03948871712563483</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="J18">
-        <v>0.03948871712563483</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.125446</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N18">
-        <v>0.376338</v>
+        <v>6.437662</v>
       </c>
       <c r="O18">
-        <v>0.01140748791558863</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P18">
-        <v>0.01140748791558863</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q18">
-        <v>1.048654212337333</v>
+        <v>1.096566309727778</v>
       </c>
       <c r="R18">
-        <v>9.437887911035999</v>
+        <v>9.869096787549999</v>
       </c>
       <c r="S18">
-        <v>0.000450467063412777</v>
+        <v>0.000365760320917453</v>
       </c>
       <c r="T18">
-        <v>0.000450467063412777</v>
+        <v>0.0003657603209174531</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.359407333333333</v>
+        <v>0.5110083333333334</v>
       </c>
       <c r="H19">
-        <v>25.078222</v>
+        <v>1.533025</v>
       </c>
       <c r="I19">
-        <v>0.03948871712563483</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="J19">
-        <v>0.03948871712563483</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.09408700000000002</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N19">
-        <v>0.282261</v>
+        <v>0.188716</v>
       </c>
       <c r="O19">
-        <v>0.00855584327530561</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P19">
-        <v>0.008555843275305609</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q19">
-        <v>0.7865115577713335</v>
+        <v>0.03214514954444445</v>
       </c>
       <c r="R19">
-        <v>7.078604019942001</v>
+        <v>0.2893063459</v>
       </c>
       <c r="S19">
-        <v>0.0003378592748698083</v>
+        <v>1.072203304899482E-05</v>
       </c>
       <c r="T19">
-        <v>0.0003378592748698082</v>
+        <v>1.072203304899482E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.359407333333333</v>
+        <v>12.96440966666667</v>
       </c>
       <c r="H20">
-        <v>25.078222</v>
+        <v>38.893229</v>
       </c>
       <c r="I20">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572963</v>
       </c>
       <c r="J20">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572964</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.04400233333333333</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N20">
-        <v>0.132007</v>
+        <v>22.415874</v>
       </c>
       <c r="O20">
-        <v>0.004001371791509515</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P20">
-        <v>0.004001371791509515</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q20">
-        <v>0.3678334279504444</v>
+        <v>96.86952452412734</v>
       </c>
       <c r="R20">
-        <v>3.310500851554</v>
+        <v>871.8257207171461</v>
       </c>
       <c r="S20">
-        <v>0.0001580090387894139</v>
+        <v>0.03231088540907448</v>
       </c>
       <c r="T20">
-        <v>0.0001580090387894139</v>
+        <v>0.03231088540907448</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.359407333333333</v>
+        <v>12.96440966666667</v>
       </c>
       <c r="H21">
-        <v>25.078222</v>
+        <v>38.893229</v>
       </c>
       <c r="I21">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572963</v>
       </c>
       <c r="J21">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572964</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.040985</v>
+        <v>0.125446</v>
       </c>
       <c r="N21">
-        <v>6.122955</v>
+        <v>0.376338</v>
       </c>
       <c r="O21">
-        <v>0.1855978805493811</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P21">
-        <v>0.1855978805493811</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q21">
-        <v>17.06142497622334</v>
+        <v>1.626333335044667</v>
       </c>
       <c r="R21">
-        <v>153.55282478601</v>
+        <v>14.637000015402</v>
       </c>
       <c r="S21">
-        <v>0.007329022204131871</v>
+        <v>0.0005424644157564532</v>
       </c>
       <c r="T21">
-        <v>0.007329022204131871</v>
+        <v>0.0005424644157564533</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.330635666666667</v>
+        <v>12.96440966666667</v>
       </c>
       <c r="H22">
-        <v>3.991907</v>
+        <v>38.893229</v>
       </c>
       <c r="I22">
-        <v>0.006285744113551653</v>
+        <v>0.04311667284572963</v>
       </c>
       <c r="J22">
-        <v>0.006285744113551654</v>
+        <v>0.04311667284572964</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>8.692291666666666</v>
+        <v>0.148662</v>
       </c>
       <c r="N22">
-        <v>26.076875</v>
+        <v>0.445986</v>
       </c>
       <c r="O22">
-        <v>0.7904374164682153</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P22">
-        <v>0.7904374164682153</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q22">
-        <v>11.56627331673611</v>
+        <v>1.927315069866</v>
       </c>
       <c r="R22">
-        <v>104.096459850625</v>
+        <v>17.345835628794</v>
       </c>
       <c r="S22">
-        <v>0.004968487337696061</v>
+        <v>0.0006428570458618517</v>
       </c>
       <c r="T22">
-        <v>0.004968487337696061</v>
+        <v>0.0006428570458618518</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,61 +1845,61 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.330635666666667</v>
+        <v>12.96440966666667</v>
       </c>
       <c r="H23">
-        <v>3.991907</v>
+        <v>38.893229</v>
       </c>
       <c r="I23">
-        <v>0.006285744113551653</v>
+        <v>0.04311667284572963</v>
       </c>
       <c r="J23">
-        <v>0.006285744113551654</v>
+        <v>0.04311667284572964</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.125446</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N23">
-        <v>0.376338</v>
+        <v>0.047879</v>
       </c>
       <c r="O23">
-        <v>0.01140748791558863</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P23">
-        <v>0.01140748791558863</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q23">
-        <v>0.1669229218406666</v>
+        <v>0.2069076568101111</v>
       </c>
       <c r="R23">
-        <v>1.502306296566</v>
+        <v>1.862168911291</v>
       </c>
       <c r="S23">
-        <v>7.170455001582282E-05</v>
+        <v>6.901416748243128E-05</v>
       </c>
       <c r="T23">
-        <v>7.170455001582283E-05</v>
+        <v>6.90141674824313E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.330635666666667</v>
+        <v>12.96440966666667</v>
       </c>
       <c r="H24">
-        <v>3.991907</v>
+        <v>38.893229</v>
       </c>
       <c r="I24">
-        <v>0.006285744113551653</v>
+        <v>0.04311667284572963</v>
       </c>
       <c r="J24">
-        <v>0.006285744113551654</v>
+        <v>0.04311667284572964</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.09408700000000002</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N24">
-        <v>0.282261</v>
+        <v>6.437662</v>
       </c>
       <c r="O24">
-        <v>0.00855584327530561</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P24">
-        <v>0.008555843275305609</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q24">
-        <v>0.1251955179696667</v>
+        <v>27.82016248784422</v>
       </c>
       <c r="R24">
-        <v>1.126759661727</v>
+        <v>250.381462390598</v>
       </c>
       <c r="S24">
-        <v>5.377984150422273E-05</v>
+        <v>0.009279431138145815</v>
       </c>
       <c r="T24">
-        <v>5.377984150422273E-05</v>
+        <v>0.009279431138145817</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.330635666666667</v>
+        <v>12.96440966666667</v>
       </c>
       <c r="H25">
-        <v>3.991907</v>
+        <v>38.893229</v>
       </c>
       <c r="I25">
-        <v>0.006285744113551653</v>
+        <v>0.04311667284572963</v>
       </c>
       <c r="J25">
-        <v>0.006285744113551654</v>
+        <v>0.04311667284572964</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.04400233333333333</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N25">
-        <v>0.132007</v>
+        <v>0.188716</v>
       </c>
       <c r="O25">
-        <v>0.004001371791509515</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P25">
-        <v>0.004001371791509515</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q25">
-        <v>0.05855107414988889</v>
+        <v>0.8155305115515554</v>
       </c>
       <c r="R25">
-        <v>0.526959667349</v>
+        <v>7.339774603963999</v>
       </c>
       <c r="S25">
-        <v>2.515159918461256E-05</v>
+        <v>0.000272020669408603</v>
       </c>
       <c r="T25">
-        <v>2.515159918461257E-05</v>
+        <v>0.000272020669408603</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.330635666666667</v>
+        <v>1.873532666666667</v>
       </c>
       <c r="H26">
-        <v>3.991907</v>
+        <v>5.620598</v>
       </c>
       <c r="I26">
-        <v>0.006285744113551653</v>
+        <v>0.00623094279889598</v>
       </c>
       <c r="J26">
-        <v>0.006285744113551654</v>
+        <v>0.006230942798895981</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,33 +2049,33 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.040985</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N26">
-        <v>6.122955</v>
+        <v>22.415874</v>
       </c>
       <c r="O26">
-        <v>0.1855978805493811</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P26">
-        <v>0.1855978805493811</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q26">
-        <v>2.715807436131667</v>
+        <v>13.99895739696134</v>
       </c>
       <c r="R26">
-        <v>24.442266925185</v>
+        <v>125.990616572652</v>
       </c>
       <c r="S26">
-        <v>0.001166620785150935</v>
+        <v>0.004669360260843172</v>
       </c>
       <c r="T26">
-        <v>0.001166620785150935</v>
+        <v>0.004669360260843173</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4825293333333332</v>
+        <v>1.873532666666667</v>
       </c>
       <c r="H27">
-        <v>1.447588</v>
+        <v>5.620598</v>
       </c>
       <c r="I27">
-        <v>0.002279403741081144</v>
+        <v>0.00623094279889598</v>
       </c>
       <c r="J27">
-        <v>0.002279403741081145</v>
+        <v>0.006230942798895981</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>8.692291666666666</v>
+        <v>0.125446</v>
       </c>
       <c r="N27">
-        <v>26.076875</v>
+        <v>0.376338</v>
       </c>
       <c r="O27">
-        <v>0.7904374164682153</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P27">
-        <v>0.7904374164682153</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q27">
-        <v>4.194285703055554</v>
+        <v>0.2350271789026667</v>
       </c>
       <c r="R27">
-        <v>37.74857132749999</v>
+        <v>2.115244610124</v>
       </c>
       <c r="S27">
-        <v>0.001801726004188164</v>
+        <v>7.839345018825487E-05</v>
       </c>
       <c r="T27">
-        <v>0.001801726004188165</v>
+        <v>7.839345018825489E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4825293333333332</v>
+        <v>1.873532666666667</v>
       </c>
       <c r="H28">
-        <v>1.447588</v>
+        <v>5.620598</v>
       </c>
       <c r="I28">
-        <v>0.002279403741081144</v>
+        <v>0.00623094279889598</v>
       </c>
       <c r="J28">
-        <v>0.002279403741081145</v>
+        <v>0.006230942798895981</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,33 +2173,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.125446</v>
+        <v>0.148662</v>
       </c>
       <c r="N28">
-        <v>0.376338</v>
+        <v>0.445986</v>
       </c>
       <c r="O28">
-        <v>0.01140748791558863</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P28">
-        <v>0.01140748791558863</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q28">
-        <v>0.0605313747493333</v>
+        <v>0.278523113292</v>
       </c>
       <c r="R28">
-        <v>0.5447823727439998</v>
+        <v>2.506708019628</v>
       </c>
       <c r="S28">
-        <v>2.600227063113066E-05</v>
+        <v>9.290154402600596E-05</v>
       </c>
       <c r="T28">
-        <v>2.600227063113066E-05</v>
+        <v>9.290154402600599E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4825293333333332</v>
+        <v>1.873532666666667</v>
       </c>
       <c r="H29">
-        <v>1.447588</v>
+        <v>5.620598</v>
       </c>
       <c r="I29">
-        <v>0.002279403741081144</v>
+        <v>0.00623094279889598</v>
       </c>
       <c r="J29">
-        <v>0.002279403741081145</v>
+        <v>0.006230942798895981</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,33 +2235,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.09408700000000002</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N29">
-        <v>0.282261</v>
+        <v>0.047879</v>
       </c>
       <c r="O29">
-        <v>0.00855584327530561</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P29">
-        <v>0.008555843275305609</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q29">
-        <v>0.04539973738533333</v>
+        <v>0.02990095684911111</v>
       </c>
       <c r="R29">
-        <v>0.408597636468</v>
+        <v>0.269108611642</v>
       </c>
       <c r="S29">
-        <v>1.950222116983556E-05</v>
+        <v>9.973481289594607E-06</v>
       </c>
       <c r="T29">
-        <v>1.950222116983556E-05</v>
+        <v>9.973481289594607E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,108 +2279,480 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4825293333333332</v>
+        <v>1.873532666666667</v>
       </c>
       <c r="H30">
-        <v>1.447588</v>
+        <v>5.620598</v>
       </c>
       <c r="I30">
-        <v>0.002279403741081144</v>
+        <v>0.00623094279889598</v>
       </c>
       <c r="J30">
-        <v>0.002279403741081145</v>
+        <v>0.006230942798895981</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.04400233333333333</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N30">
-        <v>0.132007</v>
+        <v>6.437662</v>
       </c>
       <c r="O30">
-        <v>0.004001371791509515</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P30">
-        <v>0.004001371791509515</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q30">
-        <v>0.02123241656844444</v>
+        <v>4.020390017986222</v>
       </c>
       <c r="R30">
-        <v>0.1910917491159999</v>
+        <v>36.183510161876</v>
       </c>
       <c r="S30">
-        <v>9.120741831023348E-06</v>
+        <v>0.001341003394092069</v>
       </c>
       <c r="T30">
-        <v>9.12074183102335E-06</v>
+        <v>0.00134100339409207</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.873532666666667</v>
+      </c>
+      <c r="H31">
+        <v>5.620598</v>
+      </c>
+      <c r="I31">
+        <v>0.00623094279889598</v>
+      </c>
+      <c r="J31">
+        <v>0.006230942798895981</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.188716</v>
+      </c>
+      <c r="O31">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="P31">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="Q31">
+        <v>0.1178551969075556</v>
+      </c>
+      <c r="R31">
+        <v>1.060696772168</v>
+      </c>
+      <c r="S31">
+        <v>3.931066845688372E-05</v>
+      </c>
+      <c r="T31">
+        <v>3.931066845688373E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.3910823333333333</v>
+      </c>
+      <c r="H32">
+        <v>1.173247</v>
+      </c>
+      <c r="I32">
+        <v>0.001300650739650178</v>
+      </c>
+      <c r="J32">
+        <v>0.001300650739650178</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>7.471958000000001</v>
+      </c>
+      <c r="N32">
+        <v>22.415874</v>
+      </c>
+      <c r="O32">
+        <v>0.7493826233921622</v>
+      </c>
+      <c r="P32">
+        <v>0.7493826233921622</v>
+      </c>
+      <c r="Q32">
+        <v>2.922150769208667</v>
+      </c>
+      <c r="R32">
+        <v>26.299356922878</v>
+      </c>
+      <c r="S32">
+        <v>0.0009746850633960066</v>
+      </c>
+      <c r="T32">
+        <v>0.0009746850633960069</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.3910823333333333</v>
+      </c>
+      <c r="H33">
+        <v>1.173247</v>
+      </c>
+      <c r="I33">
+        <v>0.001300650739650178</v>
+      </c>
+      <c r="J33">
+        <v>0.001300650739650178</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.125446</v>
+      </c>
+      <c r="N33">
+        <v>0.376338</v>
+      </c>
+      <c r="O33">
+        <v>0.01258131437222388</v>
+      </c>
+      <c r="P33">
+        <v>0.01258131437222388</v>
+      </c>
+      <c r="Q33">
+        <v>0.04905971438733333</v>
+      </c>
+      <c r="R33">
+        <v>0.441537429486</v>
+      </c>
+      <c r="S33">
+        <v>1.63638958440044E-05</v>
+      </c>
+      <c r="T33">
+        <v>1.636389584400441E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.3910823333333333</v>
+      </c>
+      <c r="H34">
+        <v>1.173247</v>
+      </c>
+      <c r="I34">
+        <v>0.001300650739650178</v>
+      </c>
+      <c r="J34">
+        <v>0.001300650739650178</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.148662</v>
+      </c>
+      <c r="N34">
+        <v>0.445986</v>
+      </c>
+      <c r="O34">
+        <v>0.01490970901585978</v>
+      </c>
+      <c r="P34">
+        <v>0.01490970901585978</v>
+      </c>
+      <c r="Q34">
+        <v>0.05813908183799999</v>
+      </c>
+      <c r="R34">
+        <v>0.523251736542</v>
+      </c>
+      <c r="S34">
+        <v>1.939232405944695E-05</v>
+      </c>
+      <c r="T34">
+        <v>1.939232405944696E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.3910823333333333</v>
+      </c>
+      <c r="H35">
+        <v>1.173247</v>
+      </c>
+      <c r="I35">
+        <v>0.001300650739650178</v>
+      </c>
+      <c r="J35">
+        <v>0.001300650739650178</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.01595966666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.047879</v>
+      </c>
+      <c r="O35">
+        <v>0.001600637593938712</v>
+      </c>
+      <c r="P35">
+        <v>0.001600637593938712</v>
+      </c>
+      <c r="Q35">
+        <v>0.006241543679222222</v>
+      </c>
+      <c r="R35">
+        <v>0.05617389311299999</v>
+      </c>
+      <c r="S35">
+        <v>2.081870470468267E-06</v>
+      </c>
+      <c r="T35">
+        <v>2.081870470468268E-06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.4825293333333332</v>
-      </c>
-      <c r="H31">
-        <v>1.447588</v>
-      </c>
-      <c r="I31">
-        <v>0.002279403741081144</v>
-      </c>
-      <c r="J31">
-        <v>0.002279403741081145</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>2.040985</v>
-      </c>
-      <c r="N31">
-        <v>6.122955</v>
-      </c>
-      <c r="O31">
-        <v>0.1855978805493811</v>
-      </c>
-      <c r="P31">
-        <v>0.1855978805493811</v>
-      </c>
-      <c r="Q31">
-        <v>0.9848351313933331</v>
-      </c>
-      <c r="R31">
-        <v>8.863516182539998</v>
-      </c>
-      <c r="S31">
-        <v>0.0004230525032609905</v>
-      </c>
-      <c r="T31">
-        <v>0.0004230525032609906</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.3910823333333333</v>
+      </c>
+      <c r="H36">
+        <v>1.173247</v>
+      </c>
+      <c r="I36">
+        <v>0.001300650739650178</v>
+      </c>
+      <c r="J36">
+        <v>0.001300650739650178</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.145887333333333</v>
+      </c>
+      <c r="N36">
+        <v>6.437662</v>
+      </c>
+      <c r="O36">
+        <v>0.2152167717427406</v>
+      </c>
+      <c r="P36">
+        <v>0.2152167717427406</v>
+      </c>
+      <c r="Q36">
+        <v>0.8392186253904442</v>
+      </c>
+      <c r="R36">
+        <v>7.552967628513999</v>
+      </c>
+      <c r="S36">
+        <v>0.0002799218533523191</v>
+      </c>
+      <c r="T36">
+        <v>0.0002799218533523191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.3910823333333333</v>
+      </c>
+      <c r="H37">
+        <v>1.173247</v>
+      </c>
+      <c r="I37">
+        <v>0.001300650739650178</v>
+      </c>
+      <c r="J37">
+        <v>0.001300650739650178</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M37">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N37">
+        <v>0.188716</v>
+      </c>
+      <c r="O37">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="P37">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="Q37">
+        <v>0.02460116453911111</v>
+      </c>
+      <c r="R37">
+        <v>0.221410480852</v>
+      </c>
+      <c r="S37">
+        <v>8.205732527932696E-06</v>
+      </c>
+      <c r="T37">
+        <v>8.205732527932696E-06</v>
       </c>
     </row>
   </sheetData>
